--- a/pressure/pre_2_layer_per.xlsx
+++ b/pressure/pre_2_layer_per.xlsx
@@ -1,16 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Siqi/Desktop/matlab_files_0722/pressure/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1113CFF3-8407-C943-B478-F4445CFC30CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$369</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$2:$B$369</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$2:$A$369</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$2:$B$369</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$369</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$2:$A$369</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$2:$B$369</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$2:$A$369</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -26,11 +49,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -41,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -49,33 +78,3437 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Res_percent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$369</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="368"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54467199999094007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63192999999225141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71655900000035766</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79830900000035765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87949799999594702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96273099999129785</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0434399999976158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1231649999916553</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2106019999980928</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2982060000002384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3832739999890324</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4634289999902248</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.540920000001788</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6185539999902245</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.695427999988198</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7732430000007151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8543159999996424</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9369829999953505</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0213760000020264</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1051030000001192</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.192106999993324</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2817109999954699</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3658310000002385</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4463760000020263</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.529515999987721</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.612508000001311</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6933629999905828</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7737369999885559</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8543509999960661</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9354889999926095</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0142969999909401</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0921389999985696</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.1736889999955893</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.2508569999933248</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3329780000001197</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.4122299999892713</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.4921169999986885</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.5715499999970199</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.6517439999878412</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.7316749999970198</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.8143999999910596</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8942999999970196</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.9781110000014306</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.0634549999982115</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.157182999998331</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.2382119999974961</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.3196700000017882</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.3986770000010731</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.4818229999989265</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.5637389999926095</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.6437950000017887</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.7168789999932059</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.7959309999942779</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.8685259999930857</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.9458379999995232</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.0229769999980922</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.1027519999891524</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.1767039999961852</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.26581099998951</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.3482749999910597</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.4313809999972582</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.5115799999982116</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.5939149999916546</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.6732229999899859</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.7550899999886749</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.8367009999901063</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.917949000000954</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.9988329999893901</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.0868339999914172</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.1686250000000005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.2487449999898672</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.3267210000008349</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.4095069999992846</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.489100999996066</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.5728889999985691</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.6552019999921326</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.7390639999955884</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.8212919999957089</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.9062689999938005</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.98217199999094</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.0640129999965424</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.1483769999891518</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.2321159999966618</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.31324399998784</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.3955649999976165</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.4787739999890332</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.5597789999991658</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.6391669999957088</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.7242249999940391</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.8072739999890342</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.8892060000002378</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.9705999999940405</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.0515309999883193</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.1345639999955903</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.2146629999876026</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.2935419999957087</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.3768119999915367</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.4577679999917752</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.5384399999976157</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.6182759999930862</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.6991739999949935</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.7862699999958291</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.8718549999892709</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8.9655609999895098</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9.0506929999887955</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.1312199999988071</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.214262999996544</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.2971349999904636</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.3782129999995245</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.4601639999896285</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.5412650000005961</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.6206729999929674</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.7031909999996433</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9.7852449999898674</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.8673619999885549</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.9434039999991661</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>10.018490999996661</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10.092340999990702</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>10.16832699999213</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>10.242111000001431</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>10.316131999999286</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>10.394593999996781</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>10.476204999998211</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10.560905999988318</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>10.644413999989627</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>10.726715999990699</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>10.815348999992015</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>10.89686299999058</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>10.983565999999643</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>11.061414999991655</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>11.147414999991653</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>11.225918999999761</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>11.310130999997257</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>11.394828999996186</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>11.478846000000834</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>11.565244999989869</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>11.648207999989388</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>11.730585999995469</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>11.818487999990582</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>11.900696999996899</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>11.982766999989749</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>12.067009999990463</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>12.152270999997851</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>12.233520999997852</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>12.31522999998927</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>12.397502999991177</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>12.483300999999047</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>12.566157999992368</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>12.649442000001667</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>12.731679999992251</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>12.815688999995588</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>12.893104000002143</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>12.975063999995587</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>13.056596000000834</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>13.14247199998796</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>13.220945999994873</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>13.303305999994276</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>13.38433900000155</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>13.462273999989032</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>13.540942000001669</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>13.618138999998569</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>13.69196899999678</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>13.779791999995705</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>13.855364999994634</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>13.937753999993204</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>14.019787999987601</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>14.101765000000595</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>14.18461100000143</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>14.264202999994158</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>14.35432999999821</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>14.437332000002264</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>14.519403999999167</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>14.605456000000235</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>14.687479000002144</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>14.772459999993442</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>14.855562999993563</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>14.935901999995112</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>15.014332000002263</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>15.095635999992487</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>15.174719999998805</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>15.255515999987718</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>15.334546999990939</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>15.417466999992726</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>15.499596999987959</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>15.584427999988199</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>15.666679999992253</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>15.746824000000951</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>15.834644999995826</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>15.917072999998927</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>15.999453999996184</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>16.086645999997852</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>16.174969999998805</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>16.264935999989508</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>16.346953999996185</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>16.426848999992011</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>16.506851999998091</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>16.593724999994038</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>16.678574999988079</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>16.765552000001072</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>16.844233999997378</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>16.922835999995467</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>17.002878999993207</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>17.082938999995587</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>17.161479999989272</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>17.241910999998449</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>17.320002999991175</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>17.399552000001073</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>17.48137999999523</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>17.567392999991775</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>17.649140000000596</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>17.733901999995112</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>17.811796999990936</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>17.895336999997493</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>17.976197999998927</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>18.056637999996543</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>18.141122999995943</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>18.226531999990343</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>18.314354000002147</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>18.406333999991418</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>18.488379999995228</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>18.566824000000953</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>18.643925999999045</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>18.72454999999702</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>18.79930200000107</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>18.884724999994038</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>18.960032999992372</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>19.037221000000834</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>19.119521999999879</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>19.204884999990465</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>19.287577999994159</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>19.369460999995468</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>19.45050299999118</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>19.531979999989268</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>19.61506099998951</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>19.699434000000355</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>19.783407999992374</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>19.86442399999499</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>19.950273000001907</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>20.033049999997019</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>20.114306999996305</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>20.20013599999249</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>20.277096999987958</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>20.360670999988912</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>20.442892999991773</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>20.523552999988198</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>20.602769999995829</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>20.683069999992846</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>20.761596000000832</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>20.842414999991654</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>20.924474999994036</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>21.005969999998808</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>21.090512999996545</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>21.17580799999833</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>21.257582999989385</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>21.344309999987484</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>21.423959999993446</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>21.505697999998926</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>21.590432999998328</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>21.674087999999522</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>21.751905999988317</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>21.838473999992011</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>21.92197699999809</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>22.003953999996188</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>22.080902999997139</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>22.164530000001189</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>22.246008000001311</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>22.321718999996779</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>22.400756999999281</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>22.47709699998796</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>22.562087999999523</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>22.645339999988675</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>22.722528999999163</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>22.804987999990583</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>22.887910999998446</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>22.976821999996897</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>23.059952999994159</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>23.142434999987483</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>23.222010999992488</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>23.304481999993321</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>23.391700999990103</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>23.471923999994992</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>23.550333999991413</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>23.633861999988557</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>23.721839000001548</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>23.805317999988791</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>23.885108999997374</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>23.967689999997614</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>24.045782999992369</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>24.132011999994511</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>24.216873999997972</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>24.300552999988195</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>24.383003999993207</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>24.4667689999938</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>24.54536899998784</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>24.628648000001903</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>24.710497999995944</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>24.800192000001665</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>24.882087999999523</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>24.966596000000834</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>25.044714999988674</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>25.127645999997853</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>25.210927000001075</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>25.294142999991774</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>25.37621899999678</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>25.455561999991538</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>25.536674999997018</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>25.625009999990464</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>25.708337999999522</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>25.790859999999405</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>25.870371999993921</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>25.951545999988916</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>26.038409999996425</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>26.11844999998808</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>26.201335999995468</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>26.282983999997374</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>26.36369099999964</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>26.451615999996662</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>26.532133000001313</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>26.613700999990105</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>26.69143299999833</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>26.77458599999547</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>26.855146999999878</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>26.936739999994632</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>27.016601999998091</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>27.097548999994995</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>27.176672999992967</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>27.2587539999932</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>27.334656999990344</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>27.420656999990339</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>27.4935189999938</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>27.573231999993325</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>27.65286100000143</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>27.737324000000953</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>27.81790500000119</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>27.899258999988437</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>27.977215999990698</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>28.060719999998806</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>28.141434000000356</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>28.228376000002029</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>28.308843999996778</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>28.390898999989034</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>28.472812999993558</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>28.552062999993566</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>28.63278599999845</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>28.720332999989392</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>28.801663999989625</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>28.884863999992607</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>28.965471999987965</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>29.048234999999398</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>29.1280569999963</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>29.212851999998094</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>29.296236999988555</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>29.386758000001308</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>29.46875100000203</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>29.55218899999559</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>29.632994999989869</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>29.714608999997374</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>29.797681999996303</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>29.884959999993445</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>29.96657899999618</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>30.050729999989265</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>30.133561999991535</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>30.216165999993681</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>30.300207999989386</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>30.383932999998333</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>30.465234999999403</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>30.549846000000834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$369</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="368"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.5990853658539155E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.5990853658539155E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.5990853658539155E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.5990853658539155E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.5990853658539155E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.5990853658539155E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.5990853658539155E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.5990853658539155E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.5990853658539155E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.0713860797144961E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.0713860797144961E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.5990853658539155E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.5990853658539155E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.4259581881535738E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.0713860797144961E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5.0713860797144961E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.0713860797144961E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.0713860797144961E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5.0713860797144961E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.0713860797144961E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.4259581881535738E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9.6710153148044195E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.11814024390243853</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-9.6710153148044195E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.17695900363259034</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.17695900363259034</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.13861788617886264</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.13861788617886264</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.17695900363259034</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.17695900363259034</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.22871951219512288</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.212170233947238</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.19493140243902521</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.19493140243902521</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.17695900363259034</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.17695900363259034</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.19493140243902521</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.19493140243902521</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.19493140243902521</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.19493140243902521</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.34056980656013475</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.37495001999200306</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.36387195121951349</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.36387195121951349</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.36387195121951349</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.36387195121951349</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.37495001999200306</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.38567073170731769</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.39605110336817811</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.40610708841463655</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.42530487804878275</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.46040940766550797</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.49171885299934281</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.51306620209059417</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.51981707317073345</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.52639703612226185</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.53906955736224171</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.55694686411149941</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.56817214974475461</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.59407665505226614</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.61283697047496932</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.63819125815020605</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.6642107046070469</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.66765495636607863</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.68082236132095897</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.69308943089430974</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.70175304878048883</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.7126524390243909</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.72774390243902498</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.74367990030265319</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.75002177700348516</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.75410082445894944</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.76381284221005541</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.77804878048780535</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.78779730343887333</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.79390243902439062</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.79971857410881853</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.80794425087108057</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.8143800813008133</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.82046802900461469</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.82623555840821605</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.83276816824290734</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.83791408809610524</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.84470274390243938</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.84927859841978726</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.8536445513537706</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.85616929698708777</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.85862641550522678</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.86022825383121104</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.86334835630965023</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.86486806139613148</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.86636178861788637</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.86709911779968885</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.8685551096017291</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.86998673334013699</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.87139459568869559</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.8720898004434593</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.87346311475409855</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.87481409875074378</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.87614329268292701</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.87679988245665619</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.87809736663103699</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.87873838559814188</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.88000528135202627</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.88063127690100462</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.88186865331688358</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.88248014747589365</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.88308691967228559</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.8836890243902441</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.8848794451684977</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.8854678660855051</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.88720658353200088</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.88720658353200088</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.88777747328035084</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.88834410265744468</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.88946476964769661</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.89056895624103316</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.89272932131495253</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.89325966364356801</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.89430894308943099</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.89585495588998465</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.89686748540020622</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.89786585365853666</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.89933749683517616</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.90030173497611288</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.90125280945642228</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.90265532300593287</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.90402969247083798</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.90581985027771084</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.90713175514108091</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.90926201866520284</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.9105076122417276</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.91213184537505754</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.91371572489016828</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.91487804878048795</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.91676829268292703</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.91787519226543623</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.9189623257839723</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.92038199426111922</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.92211028632025471</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.92312342304457551</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.92444740853658547</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.9257416415456291</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.92700711382113843</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.92793791574279383</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.92885345861655355</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.92975411461431712</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.93064024390243916</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.93151219512195127</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.93237030584591574</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.93293485237483964</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.93377061707953912</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.93432055749128928</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.93513483781745055</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.93567073170731718</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.93620115729218523</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.93672619784573496</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.9372459349593496</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.93776044858438556</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.93826981707317081</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.93877411721878423</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.93927342429364891</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.93952122854561892</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.94001318391562305</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.94050032798616501</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.94074211778703165</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.94146046182011467</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.94146046182011467</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.94169759632378935</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.94216844512195141</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.94240217582031949</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.94286629023808155</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.94286629023808155</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.94332599501767</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.94355421338573586</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.94378135270714425</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.9440074206166591</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.94423242467718815</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.9444563723806253</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.94490112833371331</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.94490112833371331</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.94490112833371331</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.94512195121951226</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.94534174702212148</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.94556052289061188</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.94556052289061188</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.94577828590785917</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.94599504309130855</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.94621080139372826</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.94642556770395303</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.94642556770395303</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-0.94663934884761702</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-0.94663934884761702</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-0.9468521515878775</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-0.94706398262612768</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-0.9468521515878775</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-0.94706398262612768</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-0.94727484860270028</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-0.94748475609756111</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-0.94748475609756111</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-0.94769371163099392</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-0.94769371163099392</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-0.94790172166427566</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-0.94810879260034153</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-0.94810879260034153</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-0.94810879260034153</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-0.94810879260034153</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-0.94810879260034153</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-0.94831493078444307</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-0.94831493078444307</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-0.94852014250479599</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-0.94852014250479599</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-0.94872443399321893</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-0.94872443399321893</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-0.94872443399321893</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-0.94913028092334506</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-0.94913028092334506</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-0.94913028092334506</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-0.94913028092334506</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-0.94913028092334506</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-0.94913028092334506</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-0.94913028092334506</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-0.94933184855233854</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-0.94933184855233854</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-0.94933184855233854</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-0.9495325203252033</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-0.94973230220107085</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-0.94973230220107085</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-0.94973230220107085</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-0.9495325203252033</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-0.94973230220107085</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-0.94973230220107085</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-0.94973230220107085</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-0.94993120008633736</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-0.94993120008633736</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-0.94993120008633736</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-0.9501292198352449</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-0.9501292198352449</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-0.9501292198352449</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-0.9501292198352449</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-0.95032636725045672</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-0.9501292198352449</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-0.95032636725045672</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-0.95032636725045672</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-0.95032636725045672</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-0.95032636725045672</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-0.95032636725045672</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-0.95052264808362374</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-0.95052264808362374</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-0.95052264808362374</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-0.95052264808362374</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-0.95071806803594361</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-0.95071806803594361</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-0.95071806803594361</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-0.95071806803594361</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-0.95052264808362374</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-0.95091263275871285</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-0.95091263275871285</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-0.95071806803594361</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-0.95110634785387171</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-0.95110634785387171</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-0.95110634785387171</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-0.95129921887454183</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-0.95091263275871285</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-0.95129921887454183</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-0.95110634785387171</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-0.95110634785387171</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-0.95129921887454183</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-0.95129921887454183</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-0.95129921887454183</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-0.9514912513255569</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-0.9514912513255569</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-0.9514912513255569</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-0.95168245066398616</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-0.95168245066398616</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-0.95187282229965164</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-0.95187282229965164</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-0.95206237159563833</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-0.95206237159563833</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-0.95225110386879741</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-0.95243902439024397</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-0.95225110386879741</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-0.95243902439024397</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-0.95262613838584753</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-0.95262613838584753</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-0.95281245103671608</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-0.95281245103671608</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-0.95281245103671608</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-0.95299796747967491</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-0.95318269280773837</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-0.95318269280773837</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-0.95318269280773837</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-0.95318269280773837</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-0.95336663207057615</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-0.95354979027497289</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-0.95373217238528329</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-0.95354979027497289</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-0.95373217238528329</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-0.95373217238528329</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-0.95391378332387988</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-0.95391378332387988</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-0.95391378332387988</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-0.95409462797159628</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-0.95409462797159628</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-0.95427471116816431</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-0.95427471116816431</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-0.95427471116816431</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-0.95445403771264603</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-0.95463261236385955</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-0.95445403771264603</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-0.95463261236385955</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-0.95463261236385955</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-0.95481043984080005</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-0.95481043984080005</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-0.95498752482305627</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-0.95498752482305627</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-0.95481043984080005</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-0.95498752482305627</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-0.95498752482305627</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-0.95498752482305627</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-0.95498752482305627</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-0.95516387195121955</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-0.95516387195121955</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-0.95516387195121955</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-0.95516387195121955</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-0.95498752482305627</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-0.95516387195121955</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-0.95516387195121955</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-0.95516387195121955</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-0.95516387195121955</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-0.95516387195121955</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-0.95516387195121955</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-0.95551437101507963</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-0.95551437101507963</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-0.95551437101507963</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-0.95551437101507963</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-0.95533948582729078</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-0.95551437101507963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80AF-4A45-A58C-BBC6F9FCD7D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2130967679"/>
+        <c:axId val="2130968495"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2130967679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2130968495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2130968495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2130967679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80B72048-C15D-3148-8046-5AAFBDDBD905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B369"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -83,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -91,15 +3524,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>0.54467199999094007</v>
       </c>
       <c r="B3">
-        <v>-0.025990853658539155</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>-2.5990853658539155E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>0.63192999999225141</v>
       </c>
@@ -107,23 +3540,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>0.71655900000035766</v>
       </c>
       <c r="B5">
-        <v>-0.025990853658539155</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>-2.5990853658539155E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>0.79830900000035765</v>
       </c>
       <c r="B6">
-        <v>-0.025990853658539155</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>-2.5990853658539155E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>0.87949799999594702</v>
       </c>
@@ -131,15 +3564,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>0.96273099999129785</v>
       </c>
       <c r="B8">
-        <v>-0.025990853658539155</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>-2.5990853658539155E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>1.0434399999976158</v>
       </c>
@@ -147,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>1.1231649999916553</v>
       </c>
@@ -155,15 +3588,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>1.2106019999980928</v>
       </c>
       <c r="B11">
-        <v>-0.025990853658539155</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>-2.5990853658539155E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>1.2982060000002384</v>
       </c>
@@ -171,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>1.3832739999890324</v>
       </c>
@@ -179,15 +3612,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>1.4634289999902248</v>
       </c>
       <c r="B14">
-        <v>-0.025990853658539155</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>-2.5990853658539155E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>1.540920000001788</v>
       </c>
@@ -195,135 +3628,135 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>1.6185539999902245</v>
       </c>
       <c r="B16">
-        <v>-0.025990853658539155</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>-2.5990853658539155E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>1.695427999988198</v>
       </c>
       <c r="B17">
-        <v>-0.025990853658539155</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>-2.5990853658539155E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>1.7732430000007151</v>
       </c>
       <c r="B18">
-        <v>-0.025990853658539155</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>-2.5990853658539155E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>1.8543159999996424</v>
       </c>
       <c r="B19">
-        <v>-0.050713860797144961</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>-5.0713860797144961E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>1.9369829999953505</v>
       </c>
       <c r="B20">
-        <v>-0.050713860797144961</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>-5.0713860797144961E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>2.0213760000020264</v>
       </c>
       <c r="B21">
-        <v>-0.025990853658539155</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>-2.5990853658539155E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>2.1051030000001192</v>
       </c>
       <c r="B22">
-        <v>-0.025990853658539155</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>-2.5990853658539155E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>2.192106999993324</v>
       </c>
       <c r="B23">
-        <v>-0.074259581881535738</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>-7.4259581881535738E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>2.2817109999954699</v>
       </c>
       <c r="B24">
-        <v>-0.050713860797144961</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>-5.0713860797144961E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>2.3658310000002385</v>
       </c>
       <c r="B25">
-        <v>-0.050713860797144961</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>-5.0713860797144961E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>2.4463760000020263</v>
       </c>
       <c r="B26">
-        <v>-0.050713860797144961</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>-5.0713860797144961E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>2.529515999987721</v>
       </c>
       <c r="B27">
-        <v>-0.050713860797144961</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>-5.0713860797144961E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>2.612508000001311</v>
       </c>
       <c r="B28">
-        <v>-0.050713860797144961</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>-5.0713860797144961E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>2.6933629999905828</v>
       </c>
       <c r="B29">
-        <v>-0.050713860797144961</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>-5.0713860797144961E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>2.7737369999885559</v>
       </c>
       <c r="B30">
-        <v>-0.074259581881535738</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>-7.4259581881535738E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>2.8543509999960661</v>
       </c>
       <c r="B31">
-        <v>-0.096710153148044195</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>-9.6710153148044195E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>2.9354889999926095</v>
       </c>
@@ -331,15 +3764,15 @@
         <v>-0.11814024390243853</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>3.0142969999909401</v>
       </c>
       <c r="B33">
-        <v>-0.096710153148044195</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>-9.6710153148044195E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>3.0921389999985696</v>
       </c>
@@ -347,7 +3780,7 @@
         <v>-0.17695900363259034</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>3.1736889999955893</v>
       </c>
@@ -355,7 +3788,7 @@
         <v>-0.17695900363259034</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>3.2508569999933248</v>
       </c>
@@ -363,7 +3796,7 @@
         <v>-0.13861788617886264</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>3.3329780000001197</v>
       </c>
@@ -371,7 +3804,7 @@
         <v>-0.13861788617886264</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>3.4122299999892713</v>
       </c>
@@ -379,7 +3812,7 @@
         <v>-0.17695900363259034</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>3.4921169999986885</v>
       </c>
@@ -387,7 +3820,7 @@
         <v>-0.17695900363259034</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>3.5715499999970199</v>
       </c>
@@ -395,7 +3828,7 @@
         <v>-0.22871951219512288</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>3.6517439999878412</v>
       </c>
@@ -403,7 +3836,7 @@
         <v>-0.212170233947238</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>3.7316749999970198</v>
       </c>
@@ -411,7 +3844,7 @@
         <v>-0.19493140243902521</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>3.8143999999910596</v>
       </c>
@@ -419,7 +3852,7 @@
         <v>-0.19493140243902521</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>3.8942999999970196</v>
       </c>
@@ -427,7 +3860,7 @@
         <v>-0.17695900363259034</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>3.9781110000014306</v>
       </c>
@@ -435,7 +3868,7 @@
         <v>-0.17695900363259034</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>4.0634549999982115</v>
       </c>
@@ -443,7 +3876,7 @@
         <v>-0.19493140243902521</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>4.157182999998331</v>
       </c>
@@ -451,7 +3884,7 @@
         <v>-0.19493140243902521</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>4.2382119999974961</v>
       </c>
@@ -459,7 +3892,7 @@
         <v>-0.19493140243902521</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>4.3196700000017882</v>
       </c>
@@ -467,7 +3900,7 @@
         <v>-0.19493140243902521</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>4.3986770000010731</v>
       </c>
@@ -475,7 +3908,7 @@
         <v>-0.34056980656013475</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>4.4818229999989265</v>
       </c>
@@ -483,7 +3916,7 @@
         <v>-0.37495001999200306</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>4.5637389999926095</v>
       </c>
@@ -491,7 +3924,7 @@
         <v>-0.36387195121951349</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>4.6437950000017887</v>
       </c>
@@ -499,7 +3932,7 @@
         <v>-0.36387195121951349</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>4.7168789999932059</v>
       </c>
@@ -507,7 +3940,7 @@
         <v>-0.36387195121951349</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>4.7959309999942779</v>
       </c>
@@ -515,7 +3948,7 @@
         <v>-0.36387195121951349</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>4.8685259999930857</v>
       </c>
@@ -523,7 +3956,7 @@
         <v>-0.37495001999200306</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>4.9458379999995232</v>
       </c>
@@ -531,7 +3964,7 @@
         <v>-0.38567073170731769</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>5.0229769999980922</v>
       </c>
@@ -539,7 +3972,7 @@
         <v>-0.39605110336817811</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>5.1027519999891524</v>
       </c>
@@ -547,7 +3980,7 @@
         <v>-0.40610708841463655</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>5.1767039999961852</v>
       </c>
@@ -555,7 +3988,7 @@
         <v>-0.42530487804878275</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>5.26581099998951</v>
       </c>
@@ -563,7 +3996,7 @@
         <v>-0.46040940766550797</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>5.3482749999910597</v>
       </c>
@@ -571,7 +4004,7 @@
         <v>-0.49171885299934281</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>5.4313809999972582</v>
       </c>
@@ -579,7 +4012,7 @@
         <v>-0.51306620209059417</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>5.5115799999982116</v>
       </c>
@@ -587,7 +4020,7 @@
         <v>-0.51981707317073345</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>5.5939149999916546</v>
       </c>
@@ -595,7 +4028,7 @@
         <v>-0.52639703612226185</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>5.6732229999899859</v>
       </c>
@@ -603,7 +4036,7 @@
         <v>-0.53906955736224171</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>5.7550899999886749</v>
       </c>
@@ -611,7 +4044,7 @@
         <v>-0.55694686411149941</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>5.8367009999901063</v>
       </c>
@@ -619,7 +4052,7 @@
         <v>-0.56817214974475461</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>5.917949000000954</v>
       </c>
@@ -627,7 +4060,7 @@
         <v>-0.59407665505226614</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>5.9988329999893901</v>
       </c>
@@ -635,7 +4068,7 @@
         <v>-0.61283697047496932</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>6.0868339999914172</v>
       </c>
@@ -643,7 +4076,7 @@
         <v>-0.63819125815020605</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>6.1686250000000005</v>
       </c>
@@ -651,7 +4084,7 @@
         <v>-0.6642107046070469</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>6.2487449999898672</v>
       </c>
@@ -659,7 +4092,7 @@
         <v>-0.66765495636607863</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>6.3267210000008349</v>
       </c>
@@ -667,7 +4100,7 @@
         <v>-0.68082236132095897</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>6.4095069999992846</v>
       </c>
@@ -675,7 +4108,7 @@
         <v>-0.69308943089430974</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>6.489100999996066</v>
       </c>
@@ -683,7 +4116,7 @@
         <v>-0.70175304878048883</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>6.5728889999985691</v>
       </c>
@@ -691,7 +4124,7 @@
         <v>-0.7126524390243909</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>6.6552019999921326</v>
       </c>
@@ -699,7 +4132,7 @@
         <v>-0.72774390243902498</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>6.7390639999955884</v>
       </c>
@@ -707,7 +4140,7 @@
         <v>-0.74367990030265319</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>6.8212919999957089</v>
       </c>
@@ -715,7 +4148,7 @@
         <v>-0.75002177700348516</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>6.9062689999938005</v>
       </c>
@@ -723,7 +4156,7 @@
         <v>-0.75410082445894944</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>6.98217199999094</v>
       </c>
@@ -731,7 +4164,7 @@
         <v>-0.76381284221005541</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>7.0640129999965424</v>
       </c>
@@ -739,7 +4172,7 @@
         <v>-0.77804878048780535</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>7.1483769999891518</v>
       </c>
@@ -747,7 +4180,7 @@
         <v>-0.78779730343887333</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>7.2321159999966618</v>
       </c>
@@ -755,7 +4188,7 @@
         <v>-0.79390243902439062</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>7.31324399998784</v>
       </c>
@@ -763,7 +4196,7 @@
         <v>-0.79971857410881853</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>7.3955649999976165</v>
       </c>
@@ -771,7 +4204,7 @@
         <v>-0.80794425087108057</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>7.4787739999890332</v>
       </c>
@@ -779,7 +4212,7 @@
         <v>-0.8143800813008133</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>7.5597789999991658</v>
       </c>
@@ -787,7 +4220,7 @@
         <v>-0.82046802900461469</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>7.6391669999957088</v>
       </c>
@@ -795,7 +4228,7 @@
         <v>-0.82623555840821605</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>7.7242249999940391</v>
       </c>
@@ -803,7 +4236,7 @@
         <v>-0.83276816824290734</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>7.8072739999890342</v>
       </c>
@@ -811,7 +4244,7 @@
         <v>-0.83791408809610524</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>7.8892060000002378</v>
       </c>
@@ -819,7 +4252,7 @@
         <v>-0.84470274390243938</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>7.9705999999940405</v>
       </c>
@@ -827,7 +4260,7 @@
         <v>-0.84927859841978726</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>8.0515309999883193</v>
       </c>
@@ -835,7 +4268,7 @@
         <v>-0.8536445513537706</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>8.1345639999955903</v>
       </c>
@@ -843,7 +4276,7 @@
         <v>-0.85616929698708777</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>8.2146629999876026</v>
       </c>
@@ -851,7 +4284,7 @@
         <v>-0.85862641550522678</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>8.2935419999957087</v>
       </c>
@@ -859,7 +4292,7 @@
         <v>-0.86022825383121104</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>8.3768119999915367</v>
       </c>
@@ -867,7 +4300,7 @@
         <v>-0.86334835630965023</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>8.4577679999917752</v>
       </c>
@@ -875,7 +4308,7 @@
         <v>-0.86486806139613148</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>8.5384399999976157</v>
       </c>
@@ -883,7 +4316,7 @@
         <v>-0.86636178861788637</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>8.6182759999930862</v>
       </c>
@@ -891,7 +4324,7 @@
         <v>-0.86709911779968885</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>8.6991739999949935</v>
       </c>
@@ -899,7 +4332,7 @@
         <v>-0.8685551096017291</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>8.7862699999958291</v>
       </c>
@@ -907,7 +4340,7 @@
         <v>-0.86998673334013699</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>8.8718549999892709</v>
       </c>
@@ -915,7 +4348,7 @@
         <v>-0.87139459568869559</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>8.9655609999895098</v>
       </c>
@@ -923,7 +4356,7 @@
         <v>-0.8720898004434593</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>9.0506929999887955</v>
       </c>
@@ -931,7 +4364,7 @@
         <v>-0.87346311475409855</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>9.1312199999988071</v>
       </c>
@@ -939,7 +4372,7 @@
         <v>-0.87481409875074378</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>9.214262999996544</v>
       </c>
@@ -947,7 +4380,7 @@
         <v>-0.87614329268292701</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>9.2971349999904636</v>
       </c>
@@ -955,7 +4388,7 @@
         <v>-0.87679988245665619</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>9.3782129999995245</v>
       </c>
@@ -963,7 +4396,7 @@
         <v>-0.87809736663103699</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>9.4601639999896285</v>
       </c>
@@ -971,7 +4404,7 @@
         <v>-0.87873838559814188</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>9.5412650000005961</v>
       </c>
@@ -979,7 +4412,7 @@
         <v>-0.88000528135202627</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>9.6206729999929674</v>
       </c>
@@ -987,7 +4420,7 @@
         <v>-0.88063127690100462</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>9.7031909999996433</v>
       </c>
@@ -995,7 +4428,7 @@
         <v>-0.88186865331688358</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>9.7852449999898674</v>
       </c>
@@ -1003,7 +4436,7 @@
         <v>-0.88248014747589365</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>9.8673619999885549</v>
       </c>
@@ -1011,7 +4444,7 @@
         <v>-0.88308691967228559</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>9.9434039999991661</v>
       </c>
@@ -1019,7 +4452,7 @@
         <v>-0.8836890243902441</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>10.018490999996661</v>
       </c>
@@ -1027,7 +4460,7 @@
         <v>-0.8848794451684977</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>10.092340999990702</v>
       </c>
@@ -1035,7 +4468,7 @@
         <v>-0.8854678660855051</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>10.16832699999213</v>
       </c>
@@ -1043,7 +4476,7 @@
         <v>-0.88720658353200088</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>10.242111000001431</v>
       </c>
@@ -1051,7 +4484,7 @@
         <v>-0.88720658353200088</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>10.316131999999286</v>
       </c>
@@ -1059,7 +4492,7 @@
         <v>-0.88777747328035084</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>10.394593999996781</v>
       </c>
@@ -1067,7 +4500,7 @@
         <v>-0.88834410265744468</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>10.476204999998211</v>
       </c>
@@ -1075,7 +4508,7 @@
         <v>-0.88946476964769661</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>10.560905999988318</v>
       </c>
@@ -1083,7 +4516,7 @@
         <v>-0.89056895624103316</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>10.644413999989627</v>
       </c>
@@ -1091,7 +4524,7 @@
         <v>-0.89272932131495253</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>10.726715999990699</v>
       </c>
@@ -1099,7 +4532,7 @@
         <v>-0.89325966364356801</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>10.815348999992015</v>
       </c>
@@ -1107,7 +4540,7 @@
         <v>-0.89430894308943099</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>10.89686299999058</v>
       </c>
@@ -1115,7 +4548,7 @@
         <v>-0.89585495588998465</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>10.983565999999643</v>
       </c>
@@ -1123,7 +4556,7 @@
         <v>-0.89686748540020622</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>11.061414999991655</v>
       </c>
@@ -1131,7 +4564,7 @@
         <v>-0.89786585365853666</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>11.147414999991653</v>
       </c>
@@ -1139,7 +4572,7 @@
         <v>-0.89933749683517616</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>11.225918999999761</v>
       </c>
@@ -1147,7 +4580,7 @@
         <v>-0.90030173497611288</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>11.310130999997257</v>
       </c>
@@ -1155,7 +4588,7 @@
         <v>-0.90125280945642228</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>11.394828999996186</v>
       </c>
@@ -1163,7 +4596,7 @@
         <v>-0.90265532300593287</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>11.478846000000834</v>
       </c>
@@ -1171,7 +4604,7 @@
         <v>-0.90402969247083798</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>11.565244999989869</v>
       </c>
@@ -1179,7 +4612,7 @@
         <v>-0.90581985027771084</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>11.648207999989388</v>
       </c>
@@ -1187,7 +4620,7 @@
         <v>-0.90713175514108091</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>11.730585999995469</v>
       </c>
@@ -1195,7 +4628,7 @@
         <v>-0.90926201866520284</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>11.818487999990582</v>
       </c>
@@ -1203,7 +4636,7 @@
         <v>-0.9105076122417276</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>11.900696999996899</v>
       </c>
@@ -1211,7 +4644,7 @@
         <v>-0.91213184537505754</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>11.982766999989749</v>
       </c>
@@ -1219,7 +4652,7 @@
         <v>-0.91371572489016828</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>12.067009999990463</v>
       </c>
@@ -1227,7 +4660,7 @@
         <v>-0.91487804878048795</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:2">
       <c r="A145">
         <v>12.152270999997851</v>
       </c>
@@ -1235,7 +4668,7 @@
         <v>-0.91676829268292703</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2">
       <c r="A146">
         <v>12.233520999997852</v>
       </c>
@@ -1243,7 +4676,7 @@
         <v>-0.91787519226543623</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:2">
       <c r="A147">
         <v>12.31522999998927</v>
       </c>
@@ -1251,7 +4684,7 @@
         <v>-0.9189623257839723</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2">
       <c r="A148">
         <v>12.397502999991177</v>
       </c>
@@ -1259,7 +4692,7 @@
         <v>-0.92038199426111922</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2">
       <c r="A149">
         <v>12.483300999999047</v>
       </c>
@@ -1267,7 +4700,7 @@
         <v>-0.92211028632025471</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:2">
       <c r="A150">
         <v>12.566157999992368</v>
       </c>
@@ -1275,7 +4708,7 @@
         <v>-0.92312342304457551</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:2">
       <c r="A151">
         <v>12.649442000001667</v>
       </c>
@@ -1283,7 +4716,7 @@
         <v>-0.92444740853658547</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:2">
       <c r="A152">
         <v>12.731679999992251</v>
       </c>
@@ -1291,7 +4724,7 @@
         <v>-0.9257416415456291</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:2">
       <c r="A153">
         <v>12.815688999995588</v>
       </c>
@@ -1299,7 +4732,7 @@
         <v>-0.92700711382113843</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:2">
       <c r="A154">
         <v>12.893104000002143</v>
       </c>
@@ -1307,7 +4740,7 @@
         <v>-0.92793791574279383</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:2">
       <c r="A155">
         <v>12.975063999995587</v>
       </c>
@@ -1315,7 +4748,7 @@
         <v>-0.92885345861655355</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:2">
       <c r="A156">
         <v>13.056596000000834</v>
       </c>
@@ -1323,7 +4756,7 @@
         <v>-0.92975411461431712</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:2">
       <c r="A157">
         <v>13.14247199998796</v>
       </c>
@@ -1331,7 +4764,7 @@
         <v>-0.93064024390243916</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:2">
       <c r="A158">
         <v>13.220945999994873</v>
       </c>
@@ -1339,7 +4772,7 @@
         <v>-0.93151219512195127</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:2">
       <c r="A159">
         <v>13.303305999994276</v>
       </c>
@@ -1347,7 +4780,7 @@
         <v>-0.93237030584591574</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:2">
       <c r="A160">
         <v>13.38433900000155</v>
       </c>
@@ -1355,7 +4788,7 @@
         <v>-0.93293485237483964</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:2">
       <c r="A161">
         <v>13.462273999989032</v>
       </c>
@@ -1363,7 +4796,7 @@
         <v>-0.93377061707953912</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:2">
       <c r="A162">
         <v>13.540942000001669</v>
       </c>
@@ -1371,7 +4804,7 @@
         <v>-0.93432055749128928</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:2">
       <c r="A163">
         <v>13.618138999998569</v>
       </c>
@@ -1379,7 +4812,7 @@
         <v>-0.93513483781745055</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:2">
       <c r="A164">
         <v>13.69196899999678</v>
       </c>
@@ -1387,7 +4820,7 @@
         <v>-0.93567073170731718</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:2">
       <c r="A165">
         <v>13.779791999995705</v>
       </c>
@@ -1395,7 +4828,7 @@
         <v>-0.93620115729218523</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:2">
       <c r="A166">
         <v>13.855364999994634</v>
       </c>
@@ -1403,7 +4836,7 @@
         <v>-0.93672619784573496</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:2">
       <c r="A167">
         <v>13.937753999993204</v>
       </c>
@@ -1411,7 +4844,7 @@
         <v>-0.9372459349593496</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:2">
       <c r="A168">
         <v>14.019787999987601</v>
       </c>
@@ -1419,7 +4852,7 @@
         <v>-0.93776044858438556</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:2">
       <c r="A169">
         <v>14.101765000000595</v>
       </c>
@@ -1427,7 +4860,7 @@
         <v>-0.93826981707317081</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:2">
       <c r="A170">
         <v>14.18461100000143</v>
       </c>
@@ -1435,7 +4868,7 @@
         <v>-0.93877411721878423</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:2">
       <c r="A171">
         <v>14.264202999994158</v>
       </c>
@@ -1443,7 +4876,7 @@
         <v>-0.93927342429364891</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:2">
       <c r="A172">
         <v>14.35432999999821</v>
       </c>
@@ -1451,7 +4884,7 @@
         <v>-0.93952122854561892</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:2">
       <c r="A173">
         <v>14.437332000002264</v>
       </c>
@@ -1459,7 +4892,7 @@
         <v>-0.94001318391562305</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:2">
       <c r="A174">
         <v>14.519403999999167</v>
       </c>
@@ -1467,7 +4900,7 @@
         <v>-0.94050032798616501</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:2">
       <c r="A175">
         <v>14.605456000000235</v>
       </c>
@@ -1475,7 +4908,7 @@
         <v>-0.94074211778703165</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:2">
       <c r="A176">
         <v>14.687479000002144</v>
       </c>
@@ -1483,7 +4916,7 @@
         <v>-0.94146046182011467</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:2">
       <c r="A177">
         <v>14.772459999993442</v>
       </c>
@@ -1491,7 +4924,7 @@
         <v>-0.94146046182011467</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:2">
       <c r="A178">
         <v>14.855562999993563</v>
       </c>
@@ -1499,7 +4932,7 @@
         <v>-0.94169759632378935</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:2">
       <c r="A179">
         <v>14.935901999995112</v>
       </c>
@@ -1507,7 +4940,7 @@
         <v>-0.94216844512195141</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:2">
       <c r="A180">
         <v>15.014332000002263</v>
       </c>
@@ -1515,7 +4948,7 @@
         <v>-0.94240217582031949</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:2">
       <c r="A181">
         <v>15.095635999992487</v>
       </c>
@@ -1523,7 +4956,7 @@
         <v>-0.94286629023808155</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:2">
       <c r="A182">
         <v>15.174719999998805</v>
       </c>
@@ -1531,7 +4964,7 @@
         <v>-0.94286629023808155</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:2">
       <c r="A183">
         <v>15.255515999987718</v>
       </c>
@@ -1539,7 +4972,7 @@
         <v>-0.94332599501767</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:2">
       <c r="A184">
         <v>15.334546999990939</v>
       </c>
@@ -1547,7 +4980,7 @@
         <v>-0.94355421338573586</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:2">
       <c r="A185">
         <v>15.417466999992726</v>
       </c>
@@ -1555,7 +4988,7 @@
         <v>-0.94378135270714425</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:2">
       <c r="A186">
         <v>15.499596999987959</v>
       </c>
@@ -1563,7 +4996,7 @@
         <v>-0.9440074206166591</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:2">
       <c r="A187">
         <v>15.584427999988199</v>
       </c>
@@ -1571,7 +5004,7 @@
         <v>-0.94423242467718815</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:2">
       <c r="A188">
         <v>15.666679999992253</v>
       </c>
@@ -1579,7 +5012,7 @@
         <v>-0.9444563723806253</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:2">
       <c r="A189">
         <v>15.746824000000951</v>
       </c>
@@ -1587,7 +5020,7 @@
         <v>-0.94490112833371331</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:2">
       <c r="A190">
         <v>15.834644999995826</v>
       </c>
@@ -1595,7 +5028,7 @@
         <v>-0.94490112833371331</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:2">
       <c r="A191">
         <v>15.917072999998927</v>
       </c>
@@ -1603,7 +5036,7 @@
         <v>-0.94490112833371331</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:2">
       <c r="A192">
         <v>15.999453999996184</v>
       </c>
@@ -1611,7 +5044,7 @@
         <v>-0.94512195121951226</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:2">
       <c r="A193">
         <v>16.086645999997852</v>
       </c>
@@ -1619,7 +5052,7 @@
         <v>-0.94534174702212148</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:2">
       <c r="A194">
         <v>16.174969999998805</v>
       </c>
@@ -1627,7 +5060,7 @@
         <v>-0.94556052289061188</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:2">
       <c r="A195">
         <v>16.264935999989508</v>
       </c>
@@ -1635,7 +5068,7 @@
         <v>-0.94556052289061188</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:2">
       <c r="A196">
         <v>16.346953999996185</v>
       </c>
@@ -1643,7 +5076,7 @@
         <v>-0.94577828590785917</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:2">
       <c r="A197">
         <v>16.426848999992011</v>
       </c>
@@ -1651,7 +5084,7 @@
         <v>-0.94599504309130855</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:2">
       <c r="A198">
         <v>16.506851999998091</v>
       </c>
@@ -1659,7 +5092,7 @@
         <v>-0.94621080139372826</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:2">
       <c r="A199">
         <v>16.593724999994038</v>
       </c>
@@ -1667,7 +5100,7 @@
         <v>-0.94642556770395303</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:2">
       <c r="A200">
         <v>16.678574999988079</v>
       </c>
@@ -1675,7 +5108,7 @@
         <v>-0.94642556770395303</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:2">
       <c r="A201">
         <v>16.765552000001072</v>
       </c>
@@ -1683,7 +5116,7 @@
         <v>-0.94663934884761702</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:2">
       <c r="A202">
         <v>16.844233999997378</v>
       </c>
@@ -1691,7 +5124,7 @@
         <v>-0.94663934884761702</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:2">
       <c r="A203">
         <v>16.922835999995467</v>
       </c>
@@ -1699,7 +5132,7 @@
         <v>-0.9468521515878775</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:2">
       <c r="A204">
         <v>17.002878999993207</v>
       </c>
@@ -1707,7 +5140,7 @@
         <v>-0.94706398262612768</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:2">
       <c r="A205">
         <v>17.082938999995587</v>
       </c>
@@ -1715,7 +5148,7 @@
         <v>-0.9468521515878775</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:2">
       <c r="A206">
         <v>17.161479999989272</v>
       </c>
@@ -1723,7 +5156,7 @@
         <v>-0.94706398262612768</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:2">
       <c r="A207">
         <v>17.241910999998449</v>
       </c>
@@ -1731,7 +5164,7 @@
         <v>-0.94727484860270028</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:2">
       <c r="A208">
         <v>17.320002999991175</v>
       </c>
@@ -1739,7 +5172,7 @@
         <v>-0.94748475609756111</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:2">
       <c r="A209">
         <v>17.399552000001073</v>
       </c>
@@ -1747,7 +5180,7 @@
         <v>-0.94748475609756111</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:2">
       <c r="A210">
         <v>17.48137999999523</v>
       </c>
@@ -1755,7 +5188,7 @@
         <v>-0.94769371163099392</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:2">
       <c r="A211">
         <v>17.567392999991775</v>
       </c>
@@ -1763,7 +5196,7 @@
         <v>-0.94769371163099392</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:2">
       <c r="A212">
         <v>17.649140000000596</v>
       </c>
@@ -1771,7 +5204,7 @@
         <v>-0.94790172166427566</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:2">
       <c r="A213">
         <v>17.733901999995112</v>
       </c>
@@ -1779,7 +5212,7 @@
         <v>-0.94810879260034153</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:2">
       <c r="A214">
         <v>17.811796999990936</v>
       </c>
@@ -1787,7 +5220,7 @@
         <v>-0.94810879260034153</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:2">
       <c r="A215">
         <v>17.895336999997493</v>
       </c>
@@ -1795,7 +5228,7 @@
         <v>-0.94810879260034153</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:2">
       <c r="A216">
         <v>17.976197999998927</v>
       </c>
@@ -1803,7 +5236,7 @@
         <v>-0.94810879260034153</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:2">
       <c r="A217">
         <v>18.056637999996543</v>
       </c>
@@ -1811,7 +5244,7 @@
         <v>-0.94810879260034153</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:2">
       <c r="A218">
         <v>18.141122999995943</v>
       </c>
@@ -1819,7 +5252,7 @@
         <v>-0.94831493078444307</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:2">
       <c r="A219">
         <v>18.226531999990343</v>
       </c>
@@ -1827,7 +5260,7 @@
         <v>-0.94831493078444307</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:2">
       <c r="A220">
         <v>18.314354000002147</v>
       </c>
@@ -1835,7 +5268,7 @@
         <v>-0.94852014250479599</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:2">
       <c r="A221">
         <v>18.406333999991418</v>
       </c>
@@ -1843,7 +5276,7 @@
         <v>-0.94852014250479599</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:2">
       <c r="A222">
         <v>18.488379999995228</v>
       </c>
@@ -1851,7 +5284,7 @@
         <v>-0.94872443399321893</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:2">
       <c r="A223">
         <v>18.566824000000953</v>
       </c>
@@ -1859,7 +5292,7 @@
         <v>-0.94872443399321893</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:2">
       <c r="A224">
         <v>18.643925999999045</v>
       </c>
@@ -1867,7 +5300,7 @@
         <v>-0.94872443399321893</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:2">
       <c r="A225">
         <v>18.72454999999702</v>
       </c>
@@ -1875,7 +5308,7 @@
         <v>-0.94913028092334506</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:2">
       <c r="A226">
         <v>18.79930200000107</v>
       </c>
@@ -1883,7 +5316,7 @@
         <v>-0.94913028092334506</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:2">
       <c r="A227">
         <v>18.884724999994038</v>
       </c>
@@ -1891,7 +5324,7 @@
         <v>-0.94913028092334506</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:2">
       <c r="A228">
         <v>18.960032999992372</v>
       </c>
@@ -1899,7 +5332,7 @@
         <v>-0.94913028092334506</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:2">
       <c r="A229">
         <v>19.037221000000834</v>
       </c>
@@ -1907,7 +5340,7 @@
         <v>-0.94913028092334506</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:2">
       <c r="A230">
         <v>19.119521999999879</v>
       </c>
@@ -1915,7 +5348,7 @@
         <v>-0.94913028092334506</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:2">
       <c r="A231">
         <v>19.204884999990465</v>
       </c>
@@ -1923,7 +5356,7 @@
         <v>-0.94913028092334506</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:2">
       <c r="A232">
         <v>19.287577999994159</v>
       </c>
@@ -1931,7 +5364,7 @@
         <v>-0.94933184855233854</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:2">
       <c r="A233">
         <v>19.369460999995468</v>
       </c>
@@ -1939,7 +5372,7 @@
         <v>-0.94933184855233854</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:2">
       <c r="A234">
         <v>19.45050299999118</v>
       </c>
@@ -1947,7 +5380,7 @@
         <v>-0.94933184855233854</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:2">
       <c r="A235">
         <v>19.531979999989268</v>
       </c>
@@ -1955,7 +5388,7 @@
         <v>-0.9495325203252033</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:2">
       <c r="A236">
         <v>19.61506099998951</v>
       </c>
@@ -1963,7 +5396,7 @@
         <v>-0.94973230220107085</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:2">
       <c r="A237">
         <v>19.699434000000355</v>
       </c>
@@ -1971,7 +5404,7 @@
         <v>-0.94973230220107085</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:2">
       <c r="A238">
         <v>19.783407999992374</v>
       </c>
@@ -1979,7 +5412,7 @@
         <v>-0.94973230220107085</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:2">
       <c r="A239">
         <v>19.86442399999499</v>
       </c>
@@ -1987,7 +5420,7 @@
         <v>-0.9495325203252033</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:2">
       <c r="A240">
         <v>19.950273000001907</v>
       </c>
@@ -1995,7 +5428,7 @@
         <v>-0.94973230220107085</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:2">
       <c r="A241">
         <v>20.033049999997019</v>
       </c>
@@ -2003,7 +5436,7 @@
         <v>-0.94973230220107085</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:2">
       <c r="A242">
         <v>20.114306999996305</v>
       </c>
@@ -2011,7 +5444,7 @@
         <v>-0.94973230220107085</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:2">
       <c r="A243">
         <v>20.20013599999249</v>
       </c>
@@ -2019,7 +5452,7 @@
         <v>-0.94993120008633736</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:2">
       <c r="A244">
         <v>20.277096999987958</v>
       </c>
@@ -2027,7 +5460,7 @@
         <v>-0.94993120008633736</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:2">
       <c r="A245">
         <v>20.360670999988912</v>
       </c>
@@ -2035,7 +5468,7 @@
         <v>-0.94993120008633736</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:2">
       <c r="A246">
         <v>20.442892999991773</v>
       </c>
@@ -2043,7 +5476,7 @@
         <v>-0.9501292198352449</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:2">
       <c r="A247">
         <v>20.523552999988198</v>
       </c>
@@ -2051,7 +5484,7 @@
         <v>-0.9501292198352449</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:2">
       <c r="A248">
         <v>20.602769999995829</v>
       </c>
@@ -2059,7 +5492,7 @@
         <v>-0.9501292198352449</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:2">
       <c r="A249">
         <v>20.683069999992846</v>
       </c>
@@ -2067,7 +5500,7 @@
         <v>-0.9501292198352449</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:2">
       <c r="A250">
         <v>20.761596000000832</v>
       </c>
@@ -2075,7 +5508,7 @@
         <v>-0.95032636725045672</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:2">
       <c r="A251">
         <v>20.842414999991654</v>
       </c>
@@ -2083,7 +5516,7 @@
         <v>-0.9501292198352449</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:2">
       <c r="A252">
         <v>20.924474999994036</v>
       </c>
@@ -2091,7 +5524,7 @@
         <v>-0.95032636725045672</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:2">
       <c r="A253">
         <v>21.005969999998808</v>
       </c>
@@ -2099,7 +5532,7 @@
         <v>-0.95032636725045672</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:2">
       <c r="A254">
         <v>21.090512999996545</v>
       </c>
@@ -2107,7 +5540,7 @@
         <v>-0.95032636725045672</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:2">
       <c r="A255">
         <v>21.17580799999833</v>
       </c>
@@ -2115,7 +5548,7 @@
         <v>-0.95032636725045672</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:2">
       <c r="A256">
         <v>21.257582999989385</v>
       </c>
@@ -2123,7 +5556,7 @@
         <v>-0.95032636725045672</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:2">
       <c r="A257">
         <v>21.344309999987484</v>
       </c>
@@ -2131,7 +5564,7 @@
         <v>-0.95052264808362374</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:2">
       <c r="A258">
         <v>21.423959999993446</v>
       </c>
@@ -2139,7 +5572,7 @@
         <v>-0.95052264808362374</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:2">
       <c r="A259">
         <v>21.505697999998926</v>
       </c>
@@ -2147,7 +5580,7 @@
         <v>-0.95052264808362374</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:2">
       <c r="A260">
         <v>21.590432999998328</v>
       </c>
@@ -2155,7 +5588,7 @@
         <v>-0.95052264808362374</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:2">
       <c r="A261">
         <v>21.674087999999522</v>
       </c>
@@ -2163,7 +5596,7 @@
         <v>-0.95071806803594361</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:2">
       <c r="A262">
         <v>21.751905999988317</v>
       </c>
@@ -2171,7 +5604,7 @@
         <v>-0.95071806803594361</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:2">
       <c r="A263">
         <v>21.838473999992011</v>
       </c>
@@ -2179,7 +5612,7 @@
         <v>-0.95071806803594361</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:2">
       <c r="A264">
         <v>21.92197699999809</v>
       </c>
@@ -2187,7 +5620,7 @@
         <v>-0.95071806803594361</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:2">
       <c r="A265">
         <v>22.003953999996188</v>
       </c>
@@ -2195,7 +5628,7 @@
         <v>-0.95052264808362374</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:2">
       <c r="A266">
         <v>22.080902999997139</v>
       </c>
@@ -2203,7 +5636,7 @@
         <v>-0.95091263275871285</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:2">
       <c r="A267">
         <v>22.164530000001189</v>
       </c>
@@ -2211,7 +5644,7 @@
         <v>-0.95091263275871285</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:2">
       <c r="A268">
         <v>22.246008000001311</v>
       </c>
@@ -2219,7 +5652,7 @@
         <v>-0.95071806803594361</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:2">
       <c r="A269">
         <v>22.321718999996779</v>
       </c>
@@ -2227,7 +5660,7 @@
         <v>-0.95110634785387171</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:2">
       <c r="A270">
         <v>22.400756999999281</v>
       </c>
@@ -2235,7 +5668,7 @@
         <v>-0.95110634785387171</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:2">
       <c r="A271">
         <v>22.47709699998796</v>
       </c>
@@ -2243,7 +5676,7 @@
         <v>-0.95110634785387171</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:2">
       <c r="A272">
         <v>22.562087999999523</v>
       </c>
@@ -2251,7 +5684,7 @@
         <v>-0.95129921887454183</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:2">
       <c r="A273">
         <v>22.645339999988675</v>
       </c>
@@ -2259,7 +5692,7 @@
         <v>-0.95091263275871285</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:2">
       <c r="A274">
         <v>22.722528999999163</v>
       </c>
@@ -2267,7 +5700,7 @@
         <v>-0.95129921887454183</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:2">
       <c r="A275">
         <v>22.804987999990583</v>
       </c>
@@ -2275,7 +5708,7 @@
         <v>-0.95110634785387171</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:2">
       <c r="A276">
         <v>22.887910999998446</v>
       </c>
@@ -2283,7 +5716,7 @@
         <v>-0.95110634785387171</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:2">
       <c r="A277">
         <v>22.976821999996897</v>
       </c>
@@ -2291,7 +5724,7 @@
         <v>-0.95129921887454183</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:2">
       <c r="A278">
         <v>23.059952999994159</v>
       </c>
@@ -2299,7 +5732,7 @@
         <v>-0.95129921887454183</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:2">
       <c r="A279">
         <v>23.142434999987483</v>
       </c>
@@ -2307,7 +5740,7 @@
         <v>-0.95129921887454183</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:2">
       <c r="A280">
         <v>23.222010999992488</v>
       </c>
@@ -2315,7 +5748,7 @@
         <v>-0.9514912513255569</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:2">
       <c r="A281">
         <v>23.304481999993321</v>
       </c>
@@ -2323,7 +5756,7 @@
         <v>-0.9514912513255569</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:2">
       <c r="A282">
         <v>23.391700999990103</v>
       </c>
@@ -2331,7 +5764,7 @@
         <v>-0.9514912513255569</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:2">
       <c r="A283">
         <v>23.471923999994992</v>
       </c>
@@ -2339,7 +5772,7 @@
         <v>-0.95168245066398616</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:2">
       <c r="A284">
         <v>23.550333999991413</v>
       </c>
@@ -2347,7 +5780,7 @@
         <v>-0.95168245066398616</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:2">
       <c r="A285">
         <v>23.633861999988557</v>
       </c>
@@ -2355,7 +5788,7 @@
         <v>-0.95187282229965164</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:2">
       <c r="A286">
         <v>23.721839000001548</v>
       </c>
@@ -2363,7 +5796,7 @@
         <v>-0.95187282229965164</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:2">
       <c r="A287">
         <v>23.805317999988791</v>
       </c>
@@ -2371,7 +5804,7 @@
         <v>-0.95206237159563833</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:2">
       <c r="A288">
         <v>23.885108999997374</v>
       </c>
@@ -2379,7 +5812,7 @@
         <v>-0.95206237159563833</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:2">
       <c r="A289">
         <v>23.967689999997614</v>
       </c>
@@ -2387,7 +5820,7 @@
         <v>-0.95225110386879741</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:2">
       <c r="A290">
         <v>24.045782999992369</v>
       </c>
@@ -2395,7 +5828,7 @@
         <v>-0.95243902439024397</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:2">
       <c r="A291">
         <v>24.132011999994511</v>
       </c>
@@ -2403,7 +5836,7 @@
         <v>-0.95225110386879741</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:2">
       <c r="A292">
         <v>24.216873999997972</v>
       </c>
@@ -2411,7 +5844,7 @@
         <v>-0.95243902439024397</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:2">
       <c r="A293">
         <v>24.300552999988195</v>
       </c>
@@ -2419,7 +5852,7 @@
         <v>-0.95262613838584753</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:2">
       <c r="A294">
         <v>24.383003999993207</v>
       </c>
@@ -2427,7 +5860,7 @@
         <v>-0.95262613838584753</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:2">
       <c r="A295">
         <v>24.4667689999938</v>
       </c>
@@ -2435,7 +5868,7 @@
         <v>-0.95281245103671608</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:2">
       <c r="A296">
         <v>24.54536899998784</v>
       </c>
@@ -2443,7 +5876,7 @@
         <v>-0.95281245103671608</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:2">
       <c r="A297">
         <v>24.628648000001903</v>
       </c>
@@ -2451,7 +5884,7 @@
         <v>-0.95281245103671608</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:2">
       <c r="A298">
         <v>24.710497999995944</v>
       </c>
@@ -2459,7 +5892,7 @@
         <v>-0.95299796747967491</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:2">
       <c r="A299">
         <v>24.800192000001665</v>
       </c>
@@ -2467,7 +5900,7 @@
         <v>-0.95318269280773837</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:2">
       <c r="A300">
         <v>24.882087999999523</v>
       </c>
@@ -2475,7 +5908,7 @@
         <v>-0.95318269280773837</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:2">
       <c r="A301">
         <v>24.966596000000834</v>
       </c>
@@ -2483,7 +5916,7 @@
         <v>-0.95318269280773837</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:2">
       <c r="A302">
         <v>25.044714999988674</v>
       </c>
@@ -2491,7 +5924,7 @@
         <v>-0.95318269280773837</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:2">
       <c r="A303">
         <v>25.127645999997853</v>
       </c>
@@ -2499,7 +5932,7 @@
         <v>-0.95336663207057615</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:2">
       <c r="A304">
         <v>25.210927000001075</v>
       </c>
@@ -2507,7 +5940,7 @@
         <v>-0.95354979027497289</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:2">
       <c r="A305">
         <v>25.294142999991774</v>
       </c>
@@ -2515,7 +5948,7 @@
         <v>-0.95373217238528329</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:2">
       <c r="A306">
         <v>25.37621899999678</v>
       </c>
@@ -2523,7 +5956,7 @@
         <v>-0.95354979027497289</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:2">
       <c r="A307">
         <v>25.455561999991538</v>
       </c>
@@ -2531,7 +5964,7 @@
         <v>-0.95373217238528329</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:2">
       <c r="A308">
         <v>25.536674999997018</v>
       </c>
@@ -2539,7 +5972,7 @@
         <v>-0.95373217238528329</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:2">
       <c r="A309">
         <v>25.625009999990464</v>
       </c>
@@ -2547,7 +5980,7 @@
         <v>-0.95391378332387988</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:2">
       <c r="A310">
         <v>25.708337999999522</v>
       </c>
@@ -2555,7 +5988,7 @@
         <v>-0.95391378332387988</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:2">
       <c r="A311">
         <v>25.790859999999405</v>
       </c>
@@ -2563,7 +5996,7 @@
         <v>-0.95391378332387988</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:2">
       <c r="A312">
         <v>25.870371999993921</v>
       </c>
@@ -2571,7 +6004,7 @@
         <v>-0.95409462797159628</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:2">
       <c r="A313">
         <v>25.951545999988916</v>
       </c>
@@ -2579,7 +6012,7 @@
         <v>-0.95409462797159628</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:2">
       <c r="A314">
         <v>26.038409999996425</v>
       </c>
@@ -2587,7 +6020,7 @@
         <v>-0.95427471116816431</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:2">
       <c r="A315">
         <v>26.11844999998808</v>
       </c>
@@ -2595,7 +6028,7 @@
         <v>-0.95427471116816431</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:2">
       <c r="A316">
         <v>26.201335999995468</v>
       </c>
@@ -2603,7 +6036,7 @@
         <v>-0.95427471116816431</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:2">
       <c r="A317">
         <v>26.282983999997374</v>
       </c>
@@ -2611,7 +6044,7 @@
         <v>-0.95445403771264603</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:2">
       <c r="A318">
         <v>26.36369099999964</v>
       </c>
@@ -2619,7 +6052,7 @@
         <v>-0.95463261236385955</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:2">
       <c r="A319">
         <v>26.451615999996662</v>
       </c>
@@ -2627,7 +6060,7 @@
         <v>-0.95445403771264603</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:2">
       <c r="A320">
         <v>26.532133000001313</v>
       </c>
@@ -2635,7 +6068,7 @@
         <v>-0.95463261236385955</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:2">
       <c r="A321">
         <v>26.613700999990105</v>
       </c>
@@ -2643,7 +6076,7 @@
         <v>-0.95463261236385955</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:2">
       <c r="A322">
         <v>26.69143299999833</v>
       </c>
@@ -2651,7 +6084,7 @@
         <v>-0.95481043984080005</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:2">
       <c r="A323">
         <v>26.77458599999547</v>
       </c>
@@ -2659,7 +6092,7 @@
         <v>-0.95481043984080005</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:2">
       <c r="A324">
         <v>26.855146999999878</v>
       </c>
@@ -2667,7 +6100,7 @@
         <v>-0.95498752482305627</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:2">
       <c r="A325">
         <v>26.936739999994632</v>
       </c>
@@ -2675,7 +6108,7 @@
         <v>-0.95498752482305627</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:2">
       <c r="A326">
         <v>27.016601999998091</v>
       </c>
@@ -2683,7 +6116,7 @@
         <v>-0.95481043984080005</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:2">
       <c r="A327">
         <v>27.097548999994995</v>
       </c>
@@ -2691,7 +6124,7 @@
         <v>-0.95498752482305627</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:2">
       <c r="A328">
         <v>27.176672999992967</v>
       </c>
@@ -2699,7 +6132,7 @@
         <v>-0.95498752482305627</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:2">
       <c r="A329">
         <v>27.2587539999932</v>
       </c>
@@ -2707,7 +6140,7 @@
         <v>-0.95498752482305627</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:2">
       <c r="A330">
         <v>27.334656999990344</v>
       </c>
@@ -2715,7 +6148,7 @@
         <v>-0.95498752482305627</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:2">
       <c r="A331">
         <v>27.420656999990339</v>
       </c>
@@ -2723,7 +6156,7 @@
         <v>-0.95516387195121955</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:2">
       <c r="A332">
         <v>27.4935189999938</v>
       </c>
@@ -2731,7 +6164,7 @@
         <v>-0.95516387195121955</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:2">
       <c r="A333">
         <v>27.573231999993325</v>
       </c>
@@ -2739,7 +6172,7 @@
         <v>-0.95516387195121955</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:2">
       <c r="A334">
         <v>27.65286100000143</v>
       </c>
@@ -2747,7 +6180,7 @@
         <v>-0.95516387195121955</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:2">
       <c r="A335">
         <v>27.737324000000953</v>
       </c>
@@ -2755,7 +6188,7 @@
         <v>-0.95498752482305627</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:2">
       <c r="A336">
         <v>27.81790500000119</v>
       </c>
@@ -2763,7 +6196,7 @@
         <v>-0.95516387195121955</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:2">
       <c r="A337">
         <v>27.899258999988437</v>
       </c>
@@ -2771,7 +6204,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:2">
       <c r="A338">
         <v>27.977215999990698</v>
       </c>
@@ -2779,7 +6212,7 @@
         <v>-0.95516387195121955</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:2">
       <c r="A339">
         <v>28.060719999998806</v>
       </c>
@@ -2787,7 +6220,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:2">
       <c r="A340">
         <v>28.141434000000356</v>
       </c>
@@ -2795,7 +6228,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:2">
       <c r="A341">
         <v>28.228376000002029</v>
       </c>
@@ -2803,7 +6236,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:2">
       <c r="A342">
         <v>28.308843999996778</v>
       </c>
@@ -2811,7 +6244,7 @@
         <v>-0.95516387195121955</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:2">
       <c r="A343">
         <v>28.390898999989034</v>
       </c>
@@ -2819,7 +6252,7 @@
         <v>-0.95516387195121955</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:2">
       <c r="A344">
         <v>28.472812999993558</v>
       </c>
@@ -2827,7 +6260,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:2">
       <c r="A345">
         <v>28.552062999993566</v>
       </c>
@@ -2835,7 +6268,7 @@
         <v>-0.95516387195121955</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:2">
       <c r="A346">
         <v>28.63278599999845</v>
       </c>
@@ -2843,7 +6276,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:2">
       <c r="A347">
         <v>28.720332999989392</v>
       </c>
@@ -2851,7 +6284,7 @@
         <v>-0.95516387195121955</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:2">
       <c r="A348">
         <v>28.801663999989625</v>
       </c>
@@ -2859,7 +6292,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:2">
       <c r="A349">
         <v>28.884863999992607</v>
       </c>
@@ -2867,7 +6300,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:2">
       <c r="A350">
         <v>28.965471999987965</v>
       </c>
@@ -2875,7 +6308,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:2">
       <c r="A351">
         <v>29.048234999999398</v>
       </c>
@@ -2883,7 +6316,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:2">
       <c r="A352">
         <v>29.1280569999963</v>
       </c>
@@ -2891,7 +6324,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:2">
       <c r="A353">
         <v>29.212851999998094</v>
       </c>
@@ -2899,7 +6332,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:2">
       <c r="A354">
         <v>29.296236999988555</v>
       </c>
@@ -2907,7 +6340,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:2">
       <c r="A355">
         <v>29.386758000001308</v>
       </c>
@@ -2915,7 +6348,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:2">
       <c r="A356">
         <v>29.46875100000203</v>
       </c>
@@ -2923,7 +6356,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:2">
       <c r="A357">
         <v>29.55218899999559</v>
       </c>
@@ -2931,7 +6364,7 @@
         <v>-0.95551437101507963</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:2">
       <c r="A358">
         <v>29.632994999989869</v>
       </c>
@@ -2939,7 +6372,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:2">
       <c r="A359">
         <v>29.714608999997374</v>
       </c>
@@ -2947,7 +6380,7 @@
         <v>-0.95551437101507963</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:2">
       <c r="A360">
         <v>29.797681999996303</v>
       </c>
@@ -2955,7 +6388,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:2">
       <c r="A361">
         <v>29.884959999993445</v>
       </c>
@@ -2963,7 +6396,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:2">
       <c r="A362">
         <v>29.96657899999618</v>
       </c>
@@ -2971,7 +6404,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:2">
       <c r="A363">
         <v>30.050729999989265</v>
       </c>
@@ -2979,7 +6412,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:2">
       <c r="A364">
         <v>30.133561999991535</v>
       </c>
@@ -2987,7 +6420,7 @@
         <v>-0.95551437101507963</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:2">
       <c r="A365">
         <v>30.216165999993681</v>
       </c>
@@ -2995,7 +6428,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:2">
       <c r="A366">
         <v>30.300207999989386</v>
       </c>
@@ -3003,7 +6436,7 @@
         <v>-0.95551437101507963</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:2">
       <c r="A367">
         <v>30.383932999998333</v>
       </c>
@@ -3011,7 +6444,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:2">
       <c r="A368">
         <v>30.465234999999403</v>
       </c>
@@ -3019,7 +6452,7 @@
         <v>-0.95533948582729078</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:2">
       <c r="A369">
         <v>30.549846000000834</v>
       </c>
@@ -3028,21 +6461,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>